--- a/projekt_2/Skoroszyt1.xlsx
+++ b/projekt_2/Skoroszyt1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Dijkstra</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>lista</t>
+  </si>
+  <si>
+    <t>100%V</t>
   </si>
 </sst>
 </file>
@@ -77,7 +80,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -90,9 +93,6 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -132,7 +132,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Lista</a:t>
+              <a:t>Lista sąsiedztwa: od jednego do wszystkich</a:t>
             </a:r>
             <a:endParaRPr/>
           </a:p>
@@ -504,6 +504,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -734,8 +735,1277 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="0" y="8881109"/>
+      <a:off x="209547" y="7442833"/>
       <a:ext cx="4556759" cy="2727959"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Gęstość 50%: od jednego do drugiego</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$99</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$100:$I$104</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$100:$J$104</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$99</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$100:$I$104</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$100:$K$104</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="2140841631"/>
+        <c:axId val="2140841632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2140841631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2140841632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Czas [us]</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm rot="0" flipH="0" flipV="0">
+      <a:off x="5425437" y="17139283"/>
+      <a:ext cx="4556759" cy="2727958"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Gęstość 75%: od jednego do drugiego</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$110</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$111:$I$115</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$111:$J$115</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$110</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$111:$I$115</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$111:$K$115</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="2140841635"/>
+        <c:axId val="2140841636"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2140841635"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841636"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2140841636"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Czas [us]</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841635"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm rot="0" flipH="0" flipV="0">
+      <a:off x="5777861" y="19103337"/>
+      <a:ext cx="4556759" cy="2727958"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Graf pełny</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr/>
+              <a:t>: od jednego do drugiego</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:x val="0.002080"/>
+          <c:y val="0.000000"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$123</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$124:$I$128</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$124:$J$128</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$123</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$124:$I$128</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$124:$K$128</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="2140841655"/>
+        <c:axId val="2140841656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2140841655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2140841656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Czas [us]</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm rot="0" flipH="0" flipV="0">
+      <a:off x="5949314" y="23416259"/>
+      <a:ext cx="4556755" cy="2727957"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -801,7 +2071,11 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Macierz</a:t>
+              <a:t>Macierz sąsiedztwa: od jednego do </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr/>
+              <a:t>wszystkich</a:t>
             </a:r>
             <a:endParaRPr/>
           </a:p>
@@ -1228,7 +2502,7 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="85724" y="13279754"/>
+      <a:off x="209547" y="11736703"/>
       <a:ext cx="4556758" cy="2727958"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
@@ -1295,7 +2569,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Lista losowy</a:t>
+              <a:t>Lista sąsiedztwa: od jednego do drugiego</a:t>
             </a:r>
             <a:endParaRPr/>
           </a:p>
@@ -1722,7 +2996,7 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="5644514" y="8881108"/>
+      <a:off x="5425438" y="7517128"/>
       <a:ext cx="4556758" cy="2727958"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
@@ -1789,7 +3063,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Macierz losowy</a:t>
+              <a:t>Macierz sąsiedztwa: od jednego do drugiego</a:t>
             </a:r>
             <a:endParaRPr/>
           </a:p>
@@ -2216,7 +3490,7 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm rot="0" flipH="0" flipV="0">
-      <a:off x="5730239" y="13350240"/>
+      <a:off x="5492113" y="11349988"/>
       <a:ext cx="4556757" cy="2727958"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
@@ -2259,7 +3533,2249 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Gęstość 25%: od jednego do wszystkich</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$92</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$93:$B$97</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$93:$C$97</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$92</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$93:$B$97</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$93:$D$97</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="2140841601"/>
+        <c:axId val="2140841602"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2140841601"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841602"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2140841602"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Czas [us]</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841601"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm rot="0" flipH="0" flipV="0">
+      <a:off x="375284" y="15775304"/>
+      <a:ext cx="4556759" cy="2727958"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Gęstość 50%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr/>
+              <a:t>: od jednego do wszystkich</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$108</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$109:$B$113</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$109:$C$113</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$108</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$109:$B$113</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$109:$D$113</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="2140841611"/>
+        <c:axId val="2140841612"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2140841611"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841612"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2140841612"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Czas [us]</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841611"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm rot="0" flipH="0" flipV="0">
+      <a:off x="441959" y="19103338"/>
+      <a:ext cx="4556759" cy="2727958"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Gęstość 75%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr/>
+              <a:t>: od jednego do wszystkich</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:x val="0.002090"/>
+          <c:y val="0.000000"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$123</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$124:$B$128</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$124:$C$128</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$123</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$124:$B$128</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$124:$D$128</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="2140841615"/>
+        <c:axId val="2140841616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2140841615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2140841616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Czas [us]</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm rot="0" flipH="0" flipV="0">
+      <a:off x="300989" y="21482684"/>
+      <a:ext cx="4556759" cy="2727958"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Graf pełny</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr/>
+              <a:t>: od jednego do wszystkich</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:x val="0.002090"/>
+          <c:y val="0.000000"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$134</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$135:$B$139</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$135:$C$139</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$134</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$135:$B$139</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$135:$D$139</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="2140841619"/>
+        <c:axId val="2140841620"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2140841619"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841620"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2140841620"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Czas [us]</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841619"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm rot="0" flipH="0" flipV="0">
+      <a:off x="0" y="24210642"/>
+      <a:ext cx="4556758" cy="2727958"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Gęstość 25%: od jednego do drugiego</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$83</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$84:$I$88</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$84:$J$88</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$83</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$84:$I$88</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$84:$K$88</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="2140841627"/>
+        <c:axId val="2140841628"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2140841627"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841628"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2140841628"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Czas [us]</a:t>
+                </a:r>
+                <a:endParaRPr/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2140841627"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm rot="0" flipH="0" flipV="0">
+      <a:off x="5492111" y="14599919"/>
+      <a:ext cx="4556759" cy="2727958"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2419,6 +5935,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2967,7 +6683,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3515,7 +7231,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4063,7 +7779,4391 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4616,15 +12716,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>102869</xdr:rowOff>
+      <xdr:colOff>209547</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>502919</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>87629</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>102865</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>112390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4634,7 +12734,7 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="0" y="8881109"/>
+        <a:off x="209547" y="7442833"/>
         <a:ext cx="4556759" cy="2727959"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4648,15 +12748,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85723</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>112394</xdr:rowOff>
+      <xdr:colOff>209547</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>32383</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>588643</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>97153</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>102865</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>17141</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4666,7 +12766,7 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="85724" y="13279754"/>
+        <a:off x="209547" y="11736703"/>
         <a:ext cx="4556758" cy="2727958"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4680,15 +12780,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>981074</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>102868</xdr:rowOff>
+      <xdr:colOff>761997</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>203833</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>87627</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>594356</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>3806</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4698,7 +12798,7 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="5644514" y="8881108"/>
+        <a:off x="5425438" y="7517128"/>
         <a:ext cx="4556758" cy="2727958"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4712,15 +12812,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1066799</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>182879</xdr:rowOff>
+      <xdr:colOff>828673</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>11428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>289557</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>167638</xdr:rowOff>
+      <xdr:colOff>51430</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>179065</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4730,12 +12830,268 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm rot="0" flipH="0" flipV="0">
-        <a:off x="5730239" y="13350240"/>
+        <a:off x="5492113" y="11349988"/>
         <a:ext cx="4556757" cy="2727958"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>375283</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>268604</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>32383</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1818612742" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm rot="0" flipH="0" flipV="0">
+        <a:off x="375284" y="15775304"/>
+        <a:ext cx="4556759" cy="2727958"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>441959</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>83818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335278</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>68576</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="507995138" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm rot="0" flipH="0" flipV="0">
+        <a:off x="441959" y="19103338"/>
+        <a:ext cx="4556759" cy="2727958"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>300989</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>85723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194309</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>70483</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="945536037" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm rot="0" flipH="0" flipV="0">
+        <a:off x="300989" y="21482684"/>
+        <a:ext cx="4556759" cy="2727958"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>70482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502916</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>55240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="406950058" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm rot="0" flipH="0" flipV="0">
+        <a:off x="0" y="24210642"/>
+        <a:ext cx="4556758" cy="2727958"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>828672</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>51432</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>137158</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1481832656" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm rot="0" flipH="0" flipV="0">
+        <a:off x="5492111" y="14599919"/>
+        <a:ext cx="4556759" cy="2727958"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>761997</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>131442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>594357</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>116202</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="883158905" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm rot="0" flipH="0" flipV="0">
+        <a:off x="5425437" y="17139283"/>
+        <a:ext cx="4556759" cy="2727958"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47622</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>83817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>337182</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>68576</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1442809210" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm rot="0" flipH="0" flipV="0">
+        <a:off x="5777861" y="19103337"/>
+        <a:ext cx="4556759" cy="2727958"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>508630</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>175257</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1557136207" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm rot="0" flipH="0" flipV="0">
+        <a:off x="5949314" y="23416259"/>
+        <a:ext cx="4556755" cy="2727957"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5237,7 +13593,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A121" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5375,7 +13731,6 @@
       <c r="F5" s="6">
         <v>7.4900000000000002</v>
       </c>
-      <c r="H5" s="2"/>
       <c r="I5" s="4">
         <v>0.5</v>
       </c>
@@ -5403,7 +13758,6 @@
       <c r="F6" s="6">
         <v>8.7300000000000004</v>
       </c>
-      <c r="H6" s="2"/>
       <c r="I6" s="4">
         <v>0.75</v>
       </c>
@@ -5431,7 +13785,6 @@
       <c r="F7" s="6">
         <v>10.25</v>
       </c>
-      <c r="H7" s="2"/>
       <c r="I7" s="4">
         <v>1</v>
       </c>
@@ -5449,7 +13802,6 @@
     <row r="8" ht="14.25">
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -5465,7 +13817,6 @@
         <v>2</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="H9" s="2"/>
       <c r="I9" s="1" t="s">
         <v>1</v>
       </c>
@@ -5489,7 +13840,6 @@
       <c r="F10" s="2">
         <v>50</v>
       </c>
-      <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
         <v>4</v>
       </c>
@@ -5517,7 +13867,6 @@
       <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
@@ -5545,7 +13894,6 @@
       <c r="F12" s="6">
         <v>71.180000000000007</v>
       </c>
-      <c r="H12" s="2"/>
       <c r="I12" s="4">
         <v>0.25</v>
       </c>
@@ -5573,7 +13921,6 @@
       <c r="F13" s="6">
         <v>101.44</v>
       </c>
-      <c r="H13" s="2"/>
       <c r="I13" s="4">
         <v>0.5</v>
       </c>
@@ -5601,7 +13948,6 @@
       <c r="F14" s="6">
         <v>124.43000000000001</v>
       </c>
-      <c r="H14" s="2"/>
       <c r="I14" s="4">
         <v>0.75</v>
       </c>
@@ -5629,7 +13975,6 @@
       <c r="F15" s="6">
         <v>148.84</v>
       </c>
-      <c r="H15" s="2"/>
       <c r="I15" s="4">
         <v>1</v>
       </c>
@@ -5647,7 +13992,6 @@
     <row r="16" ht="14.25">
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -5663,7 +14007,6 @@
         <v>2</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="H17" s="2"/>
       <c r="I17" s="1" t="s">
         <v>1</v>
       </c>
@@ -5687,7 +14030,6 @@
       <c r="F18" s="2">
         <v>100</v>
       </c>
-      <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
         <v>4</v>
       </c>
@@ -5715,7 +14057,6 @@
       <c r="F19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
         <v>6</v>
       </c>
@@ -5743,7 +14084,6 @@
       <c r="F20" s="6">
         <v>213.16999999999999</v>
       </c>
-      <c r="H20" s="2"/>
       <c r="I20" s="4">
         <v>0.25</v>
       </c>
@@ -6472,12 +14812,12 @@
       <c r="I66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J66" s="7" t="s">
+      <c r="J66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
     </row>
     <row r="67" ht="14.25">
       <c r="B67" s="2"/>
@@ -6676,8 +15016,585 @@
     <row r="77" ht="14.25"/>
     <row r="79" ht="14.25"/>
     <row r="80" ht="14.25"/>
-    <row r="81" ht="14.25"/>
-    <row r="82" ht="14.25"/>
+    <row r="81" ht="14.25">
+      <c r="I81" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="I82" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="I83" s="2"/>
+      <c r="J83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="I84" s="2">
+        <v>10</v>
+      </c>
+      <c r="J84" s="2">
+        <v>2.29</v>
+      </c>
+      <c r="K84" s="6">
+        <v>2.1899999999999999</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="I85" s="2">
+        <v>50</v>
+      </c>
+      <c r="J85" s="6">
+        <v>21.57</v>
+      </c>
+      <c r="K85" s="6">
+        <v>27.399999999999999</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="I86" s="2">
+        <v>100</v>
+      </c>
+      <c r="J86" s="6">
+        <v>67.209999999999994</v>
+      </c>
+      <c r="K86" s="6">
+        <v>61.710000000000001</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25">
+      <c r="I87" s="2">
+        <v>500</v>
+      </c>
+      <c r="J87" s="6">
+        <v>1081.8</v>
+      </c>
+      <c r="K87" s="6">
+        <v>799.61000000000001</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="I88" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J88" s="6">
+        <v>3860.6599999999999</v>
+      </c>
+      <c r="K88" s="6">
+        <v>9215.3099999999995</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" ht="14.25">
+      <c r="B90" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="B91" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="B92" s="2"/>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25">
+      <c r="B93" s="2">
+        <v>10</v>
+      </c>
+      <c r="C93" s="5">
+        <v>4.9500000000000002</v>
+      </c>
+      <c r="D93" s="5">
+        <v>5.5599999999999996</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25">
+      <c r="B94" s="2">
+        <v>50</v>
+      </c>
+      <c r="C94" s="6">
+        <v>49.619999999999997</v>
+      </c>
+      <c r="D94" s="6">
+        <v>71.180000000000007</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25">
+      <c r="B95" s="2">
+        <v>100</v>
+      </c>
+      <c r="C95" s="6">
+        <v>137.58000000000001</v>
+      </c>
+      <c r="D95">
+        <v>213.16999999999999</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25">
+      <c r="B96" s="2">
+        <v>500</v>
+      </c>
+      <c r="C96" s="6">
+        <v>2067.0700000000002</v>
+      </c>
+      <c r="D96" s="6">
+        <v>3793.21</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25">
+      <c r="B97" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C97" s="6">
+        <v>7540.5500000000002</v>
+      </c>
+      <c r="D97" s="6">
+        <v>1696.29</v>
+      </c>
+      <c r="I97" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" ht="14.25">
+      <c r="I98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" ht="14.25">
+      <c r="I99" s="2"/>
+      <c r="J99" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25">
+      <c r="I100" s="2">
+        <v>10</v>
+      </c>
+      <c r="J100" s="6">
+        <v>2.71</v>
+      </c>
+      <c r="K100" s="6">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25">
+      <c r="I101" s="2">
+        <v>50</v>
+      </c>
+      <c r="J101" s="6">
+        <v>26.75</v>
+      </c>
+      <c r="K101" s="6">
+        <v>33.109999999999999</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25">
+      <c r="I102" s="2">
+        <v>100</v>
+      </c>
+      <c r="J102" s="6">
+        <v>78.859999999999999</v>
+      </c>
+      <c r="K102" s="6">
+        <v>91.280000000000001</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25">
+      <c r="I103" s="2">
+        <v>500</v>
+      </c>
+      <c r="J103" s="6">
+        <v>1421.29</v>
+      </c>
+      <c r="K103" s="6">
+        <v>2136.0799999999999</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25">
+      <c r="I104" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J104" s="6">
+        <v>5773</v>
+      </c>
+      <c r="K104" s="6">
+        <v>23759.5</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25"/>
+    <row r="106" ht="14.25">
+      <c r="B106" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" ht="14.25">
+      <c r="B107" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I108" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+    </row>
+    <row r="109" ht="14.25">
+      <c r="B109" s="2">
+        <v>10</v>
+      </c>
+      <c r="C109" s="5">
+        <v>6.0300000000000002</v>
+      </c>
+      <c r="D109" s="6">
+        <v>7.4900000000000002</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+    </row>
+    <row r="110" ht="14.25">
+      <c r="B110" s="2">
+        <v>50</v>
+      </c>
+      <c r="C110" s="6">
+        <v>55.640000000000001</v>
+      </c>
+      <c r="D110" s="6">
+        <v>101.44</v>
+      </c>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25">
+      <c r="B111" s="2">
+        <v>100</v>
+      </c>
+      <c r="C111" s="6">
+        <v>161.11000000000001</v>
+      </c>
+      <c r="D111" s="6">
+        <v>311.17000000000002</v>
+      </c>
+      <c r="I111" s="2">
+        <v>10</v>
+      </c>
+      <c r="J111" s="6">
+        <v>2.7799999999999998</v>
+      </c>
+      <c r="K111" s="6">
+        <v>2.9500000000000002</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25">
+      <c r="B112" s="2">
+        <v>500</v>
+      </c>
+      <c r="C112" s="6">
+        <v>2723.9099999999999</v>
+      </c>
+      <c r="D112" s="6">
+        <v>10404.5</v>
+      </c>
+      <c r="I112" s="2">
+        <v>50</v>
+      </c>
+      <c r="J112" s="6">
+        <v>23.43</v>
+      </c>
+      <c r="K112" s="6">
+        <v>37.579999999999998</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25">
+      <c r="B113" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C113" s="6">
+        <v>10190.700000000001</v>
+      </c>
+      <c r="D113" s="6">
+        <v>51763.199999999997</v>
+      </c>
+      <c r="I113" s="2">
+        <v>100</v>
+      </c>
+      <c r="J113" s="6">
+        <v>65.590000000000003</v>
+      </c>
+      <c r="K113" s="6">
+        <v>101.69</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25">
+      <c r="I114" s="2">
+        <v>500</v>
+      </c>
+      <c r="J114" s="6">
+        <v>1166.24</v>
+      </c>
+      <c r="K114" s="6">
+        <v>5518.21</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25">
+      <c r="I115" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J115" s="6">
+        <v>3871.2800000000002</v>
+      </c>
+      <c r="K115" s="6">
+        <v>35120.400000000001</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25">
+      <c r="B121" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="I121" s="4">
+        <v>1</v>
+      </c>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+    </row>
+    <row r="122" ht="14.25">
+      <c r="B122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="I122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+    </row>
+    <row r="123" ht="14.25">
+      <c r="B123" s="2"/>
+      <c r="C123" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25">
+      <c r="B124" s="2">
+        <v>10</v>
+      </c>
+      <c r="C124" s="5">
+        <v>6.1799999999999997</v>
+      </c>
+      <c r="D124" s="6">
+        <v>8.7300000000000004</v>
+      </c>
+      <c r="I124" s="2">
+        <v>10</v>
+      </c>
+      <c r="J124" s="6">
+        <v>2.8399999999999999</v>
+      </c>
+      <c r="K124" s="6">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25">
+      <c r="B125" s="2">
+        <v>50</v>
+      </c>
+      <c r="C125" s="6">
+        <v>49.539999999999999</v>
+      </c>
+      <c r="D125" s="6">
+        <v>124.43000000000001</v>
+      </c>
+      <c r="I125" s="2">
+        <v>50</v>
+      </c>
+      <c r="J125" s="6">
+        <v>18.66</v>
+      </c>
+      <c r="K125" s="6">
+        <v>41.880000000000003</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25">
+      <c r="B126" s="2">
+        <v>100</v>
+      </c>
+      <c r="C126" s="6">
+        <v>138.66999999999999</v>
+      </c>
+      <c r="D126" s="6">
+        <v>409.02999999999997</v>
+      </c>
+      <c r="I126" s="2">
+        <v>100</v>
+      </c>
+      <c r="J126" s="6">
+        <v>50.850000000000001</v>
+      </c>
+      <c r="K126" s="6">
+        <v>125.09999999999999</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25">
+      <c r="B127" s="2">
+        <v>500</v>
+      </c>
+      <c r="C127" s="6">
+        <v>2185.9699999999998</v>
+      </c>
+      <c r="D127" s="6">
+        <v>28417.099999999999</v>
+      </c>
+      <c r="I127" s="2">
+        <v>500</v>
+      </c>
+      <c r="J127" s="6">
+        <v>812.94000000000005</v>
+      </c>
+      <c r="K127" s="6">
+        <v>8727.3299999999999</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25">
+      <c r="B128" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C128" s="6">
+        <v>8064.8900000000003</v>
+      </c>
+      <c r="D128" s="6">
+        <v>134820</v>
+      </c>
+      <c r="I128" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J128" s="6">
+        <v>2460.0900000000001</v>
+      </c>
+      <c r="K128" s="6">
+        <v>48189.800000000003</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25">
+      <c r="A134" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25">
+      <c r="B135" s="2">
+        <v>10</v>
+      </c>
+      <c r="C135" s="5">
+        <v>5.5899999999999999</v>
+      </c>
+      <c r="D135" s="6">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25">
+      <c r="B136" s="2">
+        <v>50</v>
+      </c>
+      <c r="C136" s="6">
+        <v>42.530000000000001</v>
+      </c>
+      <c r="D136" s="6">
+        <v>148.84</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25">
+      <c r="B137" s="2">
+        <v>100</v>
+      </c>
+      <c r="C137" s="6">
+        <v>113.38</v>
+      </c>
+      <c r="D137" s="6">
+        <v>501.49000000000001</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25">
+      <c r="B138" s="2">
+        <v>500</v>
+      </c>
+      <c r="C138" s="6">
+        <v>1696.29</v>
+      </c>
+      <c r="D138" s="6">
+        <v>50080.300000000003</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25">
+      <c r="B139" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C139" s="6">
+        <v>6499.3500000000004</v>
+      </c>
+      <c r="D139" s="6">
+        <v>214054</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="B1:C1"/>
